--- a/Bidir_Active_Rectifier-Inverter_Board/Project Outputs for Bidir_Active_Rectifier-Main_Board/BOM.xlsx
+++ b/Bidir_Active_Rectifier-Inverter_Board/Project Outputs for Bidir_Active_Rectifier-Main_Board/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
   <si>
     <t>Comment</t>
   </si>
@@ -135,13 +135,10 @@
     <t>C56, C76</t>
   </si>
   <si>
-    <t>0603 ±10% Tolerance  SMT Multilayer Ceramic Capacitor</t>
-  </si>
-  <si>
     <t>C57, C82</t>
   </si>
   <si>
-    <t>33pF</t>
+    <t>33 pF</t>
   </si>
   <si>
     <t>35ZLJ330M8X20</t>
@@ -1321,42 +1318,42 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="29" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F12" s="17">
         <v>2</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D13" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="E13" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="17">
         <v>2</v>
@@ -1371,7 +1368,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>19</v>
@@ -1383,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1394,7 +1391,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>19</v>
@@ -1406,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1417,7 +1414,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>19</v>
@@ -1429,24 +1426,24 @@
         <v>1</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="C17" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>54</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="17">
         <v>3</v>
@@ -1461,7 +1458,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>19</v>
@@ -1478,19 +1475,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="D19" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="17">
         <v>6</v>
@@ -1499,19 +1496,19 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="C20" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="D20" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="E20" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" s="17">
         <v>6</v>
@@ -1520,19 +1517,19 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="C21" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="D21" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="E21" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="17">
         <v>1</v>
@@ -1541,19 +1538,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="C22" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="D22" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F22" s="17">
         <v>7</v>
@@ -1562,19 +1559,19 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>72</v>
-      </c>
       <c r="D23" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" s="17">
         <v>2</v>
@@ -1583,19 +1580,19 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="D24" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>76</v>
-      </c>
       <c r="E24" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" s="17">
         <v>2</v>
@@ -1604,19 +1601,19 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="D25" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>80</v>
-      </c>
       <c r="E25" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F25" s="17">
         <v>1</v>
@@ -1625,19 +1622,19 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="C26" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="E26" s="16" t="s">
         <v>84</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>85</v>
       </c>
       <c r="F26" s="17">
         <v>5</v>
@@ -1646,19 +1643,19 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="D27" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>89</v>
-      </c>
       <c r="E27" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="17">
         <v>1</v>
@@ -1667,19 +1664,19 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="C28" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="D28" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>93</v>
-      </c>
       <c r="E28" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F28" s="17">
         <v>1</v>
@@ -1688,19 +1685,19 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="C29" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="D29" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F29" s="17">
         <v>1</v>
@@ -1709,19 +1706,19 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="C30" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="D30" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="E30" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>101</v>
       </c>
       <c r="F30" s="17">
         <v>2</v>
@@ -1730,19 +1727,19 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="C31" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="D31" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>105</v>
-      </c>
       <c r="E31" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F31" s="17">
         <v>1</v>
@@ -1751,19 +1748,19 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>103</v>
-      </c>
       <c r="C32" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="E32" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F32" s="17">
         <v>1</v>
@@ -1772,19 +1769,19 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="C33" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="D33" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>111</v>
-      </c>
       <c r="E33" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F33" s="17">
         <v>4</v>
@@ -1793,19 +1790,19 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="C34" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>114</v>
-      </c>
       <c r="D34" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F34" s="17">
         <v>1</v>
@@ -1814,19 +1811,19 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="C35" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>117</v>
-      </c>
       <c r="D35" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F35" s="17">
         <v>1</v>
@@ -1835,19 +1832,19 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="C36" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="D36" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>121</v>
-      </c>
       <c r="E36" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F36" s="17">
         <v>2</v>
@@ -1856,19 +1853,19 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="C37" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="D37" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>125</v>
-      </c>
       <c r="E37" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F37" s="17">
         <v>4</v>
@@ -1877,502 +1874,502 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="C38" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="16" t="s">
-        <v>128</v>
-      </c>
       <c r="D38" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F38" s="17">
         <v>2</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="C39" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="16" t="s">
-        <v>132</v>
-      </c>
       <c r="D39" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F39" s="17">
         <v>15</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C40" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F40" s="17">
         <v>10</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C41" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F41" s="17">
         <v>7</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C42" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F42" s="17">
         <v>3</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C43" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F43" s="17">
         <v>2</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C44" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" s="17">
+        <v>1</v>
+      </c>
+      <c r="G44" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F44" s="17">
-        <v>1</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C45" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F45" s="17">
         <v>2</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C46" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" s="17">
+        <v>1</v>
+      </c>
+      <c r="G46" s="16" t="s">
         <v>146</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F46" s="17">
-        <v>1</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C47" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F47" s="17">
         <v>2</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C48" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F48" s="17">
         <v>4</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B49" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C49" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F49" s="17">
         <v>2</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C50" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" s="17">
+        <v>1</v>
+      </c>
+      <c r="G50" s="16" t="s">
         <v>154</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F50" s="17">
-        <v>1</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C51" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F51" s="17">
         <v>9</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B52" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C52" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F52" s="17">
+        <v>1</v>
+      </c>
+      <c r="G52" s="16" t="s">
         <v>158</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F52" s="17">
-        <v>1</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C53" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F53" s="17">
         <v>2</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C54" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F54" s="17">
         <v>2</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C55" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F55" s="17">
         <v>1</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B56" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C56" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56" s="17">
+        <v>1</v>
+      </c>
+      <c r="G56" s="16" t="s">
         <v>165</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F56" s="17">
-        <v>1</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B57" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C57" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57" s="17">
+        <v>1</v>
+      </c>
+      <c r="G57" s="16" t="s">
         <v>167</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F57" s="17">
-        <v>1</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B58" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C58" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F58" s="17">
         <v>8</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="C59" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="D59" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="D59" s="16" t="s">
-        <v>174</v>
-      </c>
       <c r="E59" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F59" s="17">
         <v>4</v>
@@ -2381,180 +2378,180 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B60" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C60" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F60" s="17">
+        <v>1</v>
+      </c>
+      <c r="G60" s="16" t="s">
         <v>175</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F60" s="17">
-        <v>1</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C61" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61" s="17">
+        <v>1</v>
+      </c>
+      <c r="G61" s="16" t="s">
         <v>177</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F61" s="17">
-        <v>1</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C62" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F62" s="17">
         <v>2</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B63" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C63" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" s="17">
+        <v>1</v>
+      </c>
+      <c r="G63" s="16" t="s">
         <v>181</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F63" s="17">
-        <v>1</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B64" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C64" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F64" s="17">
         <v>8</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B65" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C65" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F65" s="17">
+        <v>1</v>
+      </c>
+      <c r="G65" s="16" t="s">
         <v>185</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F65" s="17">
-        <v>1</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="C66" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F66" s="17">
         <v>2</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B67" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="C67" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="D67" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="D67" s="16" t="s">
-        <v>192</v>
-      </c>
       <c r="E67" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F67" s="17">
         <v>1</v>
@@ -2563,19 +2560,19 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="16" t="s">
+      <c r="D68" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="D68" s="16" t="s">
-        <v>195</v>
-      </c>
       <c r="E68" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F68" s="17">
         <v>9</v>
@@ -2584,19 +2581,19 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B69" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="C69" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="D69" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="D69" s="16" t="s">
-        <v>199</v>
-      </c>
       <c r="E69" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F69" s="17">
         <v>4</v>
@@ -2605,19 +2602,19 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B70" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="C70" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="D70" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="D70" s="16" t="s">
-        <v>203</v>
-      </c>
       <c r="E70" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F70" s="17">
         <v>2</v>
@@ -2626,19 +2623,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B71" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="C71" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="D71" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="D71" s="16" t="s">
-        <v>207</v>
-      </c>
       <c r="E71" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F71" s="17">
         <v>4</v>
@@ -2647,19 +2644,19 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B72" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="C72" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="D72" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="D72" s="16" t="s">
-        <v>211</v>
-      </c>
       <c r="E72" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F72" s="17">
         <v>1</v>
@@ -2668,19 +2665,19 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B73" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="C73" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="D73" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="D73" s="16" t="s">
-        <v>215</v>
-      </c>
       <c r="E73" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F73" s="17">
         <v>8</v>
@@ -2689,19 +2686,19 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B74" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="C74" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="C74" s="16" t="s">
-        <v>218</v>
-      </c>
       <c r="D74" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>215</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>216</v>
       </c>
       <c r="F74" s="17">
         <v>5</v>
@@ -2710,19 +2707,19 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="B75" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="C75" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="D75" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="16" t="s">
-        <v>222</v>
-      </c>
       <c r="E75" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F75" s="17">
         <v>2</v>
@@ -2731,19 +2728,19 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B76" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="C76" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="D76" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="D76" s="16" t="s">
-        <v>226</v>
-      </c>
       <c r="E76" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F76" s="17">
         <v>1</v>
@@ -2752,19 +2749,19 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="B77" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="C77" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="D77" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="D77" s="16" t="s">
-        <v>230</v>
-      </c>
       <c r="E77" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F77" s="17">
         <v>1</v>
@@ -2773,19 +2770,19 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="B78" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="C78" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="D78" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="D78" s="16" t="s">
-        <v>234</v>
-      </c>
       <c r="E78" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F78" s="17">
         <v>1</v>
@@ -2794,19 +2791,19 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B79" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="C79" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="D79" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="D79" s="16" t="s">
-        <v>238</v>
-      </c>
       <c r="E79" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F79" s="17">
         <v>1</v>
@@ -2815,19 +2812,19 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="B80" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="C80" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="C80" s="16" t="s">
-        <v>241</v>
-      </c>
       <c r="D80" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F80" s="17">
         <v>3</v>
@@ -2836,19 +2833,19 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="B81" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="C81" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="D81" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="D81" s="16" t="s">
-        <v>245</v>
-      </c>
       <c r="E81" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F81" s="17">
         <v>1</v>
@@ -2857,19 +2854,19 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="B82" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="C82" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="D82" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="D82" s="16" t="s">
-        <v>249</v>
-      </c>
       <c r="E82" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F82" s="17">
         <v>1</v>
@@ -2878,19 +2875,19 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B83" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="C83" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="D83" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="D83" s="16" t="s">
-        <v>253</v>
-      </c>
       <c r="E83" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F83" s="17">
         <v>1</v>
@@ -2899,19 +2896,19 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="B84" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="C84" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="D84" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="D84" s="16" t="s">
-        <v>257</v>
-      </c>
       <c r="E84" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F84" s="17">
         <v>1</v>
